--- a/images/planilla.xlsx
+++ b/images/planilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00835375-4086-44D0-B4B2-D8144BDF8F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A495B0-4FA4-472C-85F2-776B361C2E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{90780995-0D52-468C-BC92-7907F39BD8D5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t xml:space="preserve">Nombre: </t>
   </si>
@@ -132,8 +132,11 @@
     <t>3.- Recuerda que tienes un comodin, identicalo con un asterico (*) al lado del partido.</t>
   </si>
   <si>
+    <t xml:space="preserve">Goleador: </t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">4.- Al terminar envianos con tu nombre, telefono de contacto y la planilla al correo </t>
+      <t xml:space="preserve">5.- Al terminar envianos con tu nombre, telefono de contacto y la planilla al correo </t>
     </r>
     <r>
       <rPr>
@@ -144,8 +147,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">prodecopaamerica2024@gmail.com </t>
+      <t>prodecopaamerica2024@gmail.com</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4.- Al final de la planilla tienes el recuadro para colocar tu goleador del torneo. </t>
   </si>
 </sst>
 </file>
@@ -685,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD44C36B-AB02-4D7C-A2FE-4692619CBD07}">
-  <dimension ref="C2:J36"/>
+  <dimension ref="C2:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +777,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -771,6 +787,9 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="3:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
@@ -1181,10 +1200,18 @@
       </c>
     </row>
     <row r="36" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D2:I6"/>
+    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
